--- a/data/sample/dataset2_example_participant_format.xlsx
+++ b/data/sample/dataset2_example_participant_format.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="640" yWindow="3260" windowWidth="27760" windowHeight="15460" tabRatio="500"/>
+    <workbookView xWindow="640" yWindow="1740" windowWidth="27760" windowHeight="15460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -530,16 +530,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="12.5" customWidth="1"/>
+    <col min="7" max="7" width="15.6640625" customWidth="1"/>
     <col min="18" max="18" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="2" customFormat="1" ht="47.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" s="2" customFormat="1" ht="52" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>

--- a/data/sample/dataset2_example_participant_format.xlsx
+++ b/data/sample/dataset2_example_participant_format.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="640" yWindow="1740" windowWidth="27760" windowHeight="15460" tabRatio="500"/>
+    <workbookView xWindow="1200" yWindow="4800" windowWidth="27760" windowHeight="15460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>Cancer Site 1 text</t>
   </si>
@@ -165,13 +165,16 @@
   </si>
   <si>
     <t>C17757 = YES</t>
+  </si>
+  <si>
+    <t>Note: Grey entries are synthetic data.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -192,8 +195,16 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -209,6 +220,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -240,7 +257,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -251,6 +268,10 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -528,10 +549,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA2"/>
+  <dimension ref="A1:AA3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -633,10 +654,10 @@
       <c r="D2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="4" t="s">
         <v>45</v>
       </c>
       <c r="G2" s="3" t="s">
@@ -645,43 +666,43 @@
       <c r="H2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="3">
+      <c r="K2" s="4">
         <v>66</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="L2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="M2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="N2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="O2" s="3">
+      <c r="O2" s="4">
         <v>450000</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="P2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="Q2" s="3">
+      <c r="Q2" s="4">
         <v>3500</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="R2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="S2" s="3" t="s">
+      <c r="S2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="T2" s="3">
+      <c r="T2" s="4">
         <v>60174</v>
       </c>
-      <c r="U2" s="3" t="s">
+      <c r="U2" s="4" t="s">
         <v>26</v>
       </c>
       <c r="V2" s="3" t="s">
@@ -698,6 +719,11 @@
       </c>
       <c r="Z2"/>
       <c r="AA2"/>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>46</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
